--- a/Support data/CRMs shocks.xlsx
+++ b/Support data/CRMs shocks.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10421550_polimi_it/Documents/Documenti/Tesi di laurea/2022-23_WasteMARIO/dMRWIO model/WT/Shock Metals/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\GreenTechs\Support data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="8_{DA1F8086-84FB-4621-A72D-F6DA88FB467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81992DE5-F1B7-4637-98FD-4F66A66AFB54}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8612A960-BBF8-4109-A0E0-C783F9A1BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{D3D4658E-2FA5-4EBB-9849-40F6C24AB02F}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="36">
   <si>
     <t>EU27+UK</t>
   </si>
@@ -61,9 +61,6 @@
     <t>RoW</t>
   </si>
   <si>
-    <t>z_exio eco_updated</t>
-  </si>
-  <si>
     <t>activity</t>
   </si>
   <si>
@@ -71,15 +68,6 @@
   </si>
   <si>
     <t>Chemicals nec</t>
-  </si>
-  <si>
-    <t>Nd</t>
-  </si>
-  <si>
-    <t>Dy</t>
-  </si>
-  <si>
-    <t>Si</t>
   </si>
   <si>
     <t>i26.a</t>
@@ -152,6 +140,21 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>EXIOBASE</t>
+  </si>
+  <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Raw silicon</t>
   </si>
 </sst>
 </file>
@@ -258,13 +261,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -640,108 +643,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FCC8C6-76CA-48AF-BC40-56AB2AE1006C}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="69.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>31</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>32</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +869,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,34 +889,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -810,10 +922,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.5404275837603838E-3</v>
@@ -833,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>2.730312691718177E-9</v>
@@ -856,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>1.888367245172437E-10</v>
@@ -879,10 +991,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -902,10 +1014,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>2.7275909715523895E-4</v>
@@ -925,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1.7037832709629808E-7</v>
@@ -948,10 +1060,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>1.1783882965194616E-8</v>
@@ -971,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -994,10 +1106,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>7.9297842099814971E-4</v>
@@ -1017,10 +1129,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>5.4606253834363524E-9</v>
@@ -1040,10 +1152,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>3.7767344903448735E-10</v>
@@ -1063,10 +1175,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1086,10 +1198,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>3.0361710575749481E-3</v>
@@ -1109,10 +1221,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>3.4403643698919956E-8</v>
@@ -1132,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>2.3794605677469203E-9</v>
@@ -1155,10 +1267,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1183,7 +1295,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1203,34 +1315,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1238,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.6497711017458667E-3</v>
@@ -1261,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>2.1789102880739394E-9</v>
@@ -1284,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>3.5280497725364225E-10</v>
@@ -1307,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1330,10 +1440,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>1.6093088381204798E-4</v>
@@ -1353,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1.3596944075344399E-7</v>
@@ -1376,10 +1486,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>2.2015911217075961E-8</v>
@@ -1399,10 +1509,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1422,10 +1532,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>4.6601107196193436E-4</v>
@@ -1445,10 +1555,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>4.3578205761478797E-9</v>
@@ -1468,10 +1578,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>7.0560995450728461E-10</v>
@@ -1491,10 +1601,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1514,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>1.7287610601516834E-3</v>
@@ -1537,10 +1647,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>2.7455629324139162E-8</v>
@@ -1560,10 +1670,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>4.4455628725080619E-9</v>
@@ -1583,10 +1693,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -1611,7 +1721,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1635,34 +1745,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1670,10 +1778,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>4.8513836359543737E-4</v>
@@ -1693,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>8.8029150844166159E-10</v>
@@ -1716,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>5.2976781458120002E-10</v>
@@ -1739,10 +1847,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -1762,10 +1870,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>6.5296638353349719E-5</v>
@@ -1785,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>5.4932387422256578E-8</v>
@@ -1808,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>3.3058833983226212E-8</v>
@@ -1831,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -1854,10 +1962,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>2.4079437429006204E-4</v>
@@ -1877,10 +1985,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>1.760583016883323E-9</v>
@@ -1900,10 +2008,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>1.0595356291623998E-9</v>
@@ -1923,10 +2031,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -1946,10 +2054,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>9.2288892388507041E-4</v>
@@ -1969,10 +2077,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>1.1092222330239153E-8</v>
@@ -1992,10 +2100,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>6.6754050520629499E-9</v>
@@ -2015,10 +2123,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2043,7 +2151,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2066,34 +2174,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2101,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.1325417554414319E-2</v>
@@ -2124,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>4.9391664212617559E-9</v>
@@ -2147,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2170,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -2193,10 +2299,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>1.1515196138613937E-3</v>
@@ -2216,10 +2322,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>3.0821631333926704E-7</v>
@@ -2239,10 +2345,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -2262,10 +2368,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -2285,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>2.4961942550524733E-3</v>
@@ -2308,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>9.8783328425235068E-9</v>
@@ -2331,10 +2437,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -2354,10 +2460,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -2377,10 +2483,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>1.3763382930802408E-2</v>
@@ -2400,10 +2506,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>6.2236579071031427E-8</v>
@@ -2423,10 +2529,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -2446,10 +2552,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2474,7 +2580,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2497,34 +2603,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2532,10 +2636,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>6.8682140204585707E-3</v>
@@ -2555,10 +2659,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>9.6868024322952413E-9</v>
@@ -2578,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -2601,10 +2705,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -2624,10 +2728,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>9.8193678362617945E-4</v>
@@ -2647,10 +2751,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>6.0448065100126335E-7</v>
@@ -2670,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -2693,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -2716,10 +2820,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>2.2570486369611047E-3</v>
@@ -2739,10 +2843,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>1.9373604864590473E-8</v>
@@ -2762,10 +2866,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -2785,10 +2889,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -2808,10 +2912,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>1.0752454901284158E-2</v>
@@ -2831,10 +2935,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>1.2205975545343001E-7</v>
@@ -2854,10 +2958,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -2877,10 +2981,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2905,7 +3009,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2928,34 +3032,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -2963,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>3.5717351461947134E-3</v>
@@ -2986,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>2.8818826400226525E-9</v>
@@ -3009,10 +3111,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3032,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3055,10 +3157,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>3.8269499000194017E-4</v>
@@ -3078,10 +3180,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1.798366702042217E-7</v>
@@ -3101,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3124,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3147,10 +3249,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>1.030088699802755E-3</v>
@@ -3170,10 +3272,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>5.7637652800453033E-9</v>
@@ -3193,10 +3295,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3216,10 +3318,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3239,10 +3341,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>4.1949139251833628E-3</v>
@@ -3262,10 +3364,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>3.6313519630987439E-8</v>
@@ -3285,10 +3387,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -3308,10 +3410,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -3336,7 +3438,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3356,34 +3458,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3391,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>3.5059185678378156E-3</v>
@@ -3414,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>1.8276642107082902E-8</v>
@@ -3437,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
@@ -3460,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3483,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>3.4235691325536092E-4</v>
@@ -3506,10 +3606,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1.1405080878054859E-6</v>
@@ -3529,10 +3629,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -3552,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -3575,10 +3675,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>1.1479717764906079E-3</v>
@@ -3598,10 +3698,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>3.655328421416581E-8</v>
@@ -3621,10 +3721,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
@@ -3644,10 +3744,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -3667,10 +3767,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>4.4581783357915961E-3</v>
@@ -3690,10 +3790,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>2.3029709563012251E-7</v>
@@ -3713,10 +3813,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>0</v>
@@ -3736,10 +3836,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -3764,7 +3864,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3788,34 +3888,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3823,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>2.1277576677998507E-3</v>
@@ -3846,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>9.5329375291380355E-10</v>
@@ -3869,10 +3967,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>4.4996652510756396E-10</v>
@@ -3892,10 +3990,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -3915,10 +4013,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>2.6358881159775117E-4</v>
@@ -3938,10 +4036,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>5.9487909698209295E-8</v>
@@ -3961,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>2.8079034328085127E-8</v>
@@ -3984,10 +4082,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4007,10 +4105,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>7.6333468935176312E-4</v>
@@ -4030,10 +4128,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>1.9065875058276075E-9</v>
@@ -4053,10 +4151,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>8.9993305021512833E-10</v>
@@ -4076,10 +4174,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4099,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>3.5146534700708468E-3</v>
@@ -4122,10 +4220,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>1.2012096165810899E-8</v>
@@ -4145,10 +4243,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>5.6698590066985841E-9</v>
@@ -4168,10 +4266,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -4196,7 +4294,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4216,34 +4314,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4251,10 +4347,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.0817402656787879E-3</v>
@@ -4274,10 +4370,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>2.2927768052847211E-9</v>
@@ -4297,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>1.2353524298909707E-9</v>
@@ -4320,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4343,10 +4439,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>1.669762821144814E-4</v>
@@ -4366,10 +4462,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>1.430749956495926E-7</v>
@@ -4389,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>7.7089075188204094E-8</v>
@@ -4412,10 +4508,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4435,10 +4531,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>4.9151295963243162E-4</v>
@@ -4458,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>4.585553610569443E-9</v>
@@ -4481,10 +4577,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>2.4707048597819414E-9</v>
@@ -4504,10 +4600,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4527,10 +4623,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>1.7118406852650542E-3</v>
@@ -4550,10 +4646,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>2.8890418496543955E-8</v>
@@ -4573,10 +4669,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>1.5566211507378098E-8</v>
@@ -4596,10 +4692,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -4624,7 +4720,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4644,34 +4740,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4679,10 +4773,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>3.2544354780171298E-3</v>
@@ -4702,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>8.1213202648252263E-9</v>
@@ -4725,10 +4819,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>7.1688642755332105E-10</v>
@@ -4748,10 +4842,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -4771,10 +4865,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>1.5994429472586342E-4</v>
@@ -4794,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>5.0679065615133985E-7</v>
@@ -4817,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>4.4735502499427187E-8</v>
@@ -4840,10 +4934,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -4863,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>9.4626437641985518E-4</v>
@@ -4886,10 +4980,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>1.6242640529650456E-8</v>
@@ -4909,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>1.4337728551066421E-9</v>
@@ -4932,10 +5026,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -4955,10 +5049,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>2.5048237993161504E-3</v>
@@ -4978,10 +5072,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>1.0233370324335931E-7</v>
@@ -5001,10 +5095,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>9.0332163421968339E-9</v>
@@ -5024,10 +5118,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -5052,7 +5146,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B17" sqref="B17:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5072,34 +5166,32 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -5107,10 +5199,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <v>1.1698007443214889E-3</v>
@@ -5130,10 +5222,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>5.5586488519131944E-9</v>
@@ -5153,10 +5245,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" s="4">
         <v>1.8587353062652799E-9</v>
@@ -5176,10 +5268,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -5199,10 +5291,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" s="4">
         <v>1.7210434143856245E-4</v>
@@ -5222,10 +5314,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="4">
         <v>3.4687356330191551E-7</v>
@@ -5245,10 +5337,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>1.1598972269986147E-7</v>
@@ -5268,10 +5360,10 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
@@ -5291,10 +5383,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="4">
         <v>4.9330641894255024E-4</v>
@@ -5314,10 +5406,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>1.1117297703826395E-8</v>
@@ -5337,10 +5429,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="4">
         <v>3.7174706125305618E-9</v>
@@ -5360,10 +5452,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -5383,10 +5475,10 @@
         <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
         <v>2.1962570258367499E-3</v>
@@ -5406,10 +5498,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <v>7.0042444269739252E-8</v>
@@ -5429,10 +5521,10 @@
         <v>3</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <v>2.3421224756169513E-8</v>
@@ -5452,10 +5544,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
